--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,61 +58,73 @@
     <t>poor</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>fell</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>though</t>
@@ -121,64 +133,64 @@
     <t>money</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>work</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>use</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>use</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
+    <t>get</t>
   </si>
   <si>
     <t>one</t>
@@ -220,21 +232,18 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -608,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>0.8148148148148148</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.8035714285714286</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7526881720430108</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.7846153846153846</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7427184466019418</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>0.6226415094339622</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K8">
         <v>0.546875</v>
@@ -977,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7094594594594594</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K9">
         <v>0.463768115942029</v>
@@ -1027,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.3786885245901639</v>
+        <v>0.3721311475409836</v>
       </c>
       <c r="L10">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M10">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6052631578947368</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -1095,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.3342898134863702</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="L11">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M11">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6041666666666666</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.2655601659751037</v>
+        <v>0.2987551867219917</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.25</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5966386554621849</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.2262996941896024</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L14">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>253</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5925925925925926</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.2108433734939759</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>131</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5301204819277109</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.201058201058201</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5079365079365079</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,31 +1407,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.171875</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,31 +1457,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.145945945945946</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>158</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4960629921259843</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,31 +1507,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.1365461847389558</v>
+        <v>0.1070175438596491</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>215</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4840579710144928</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C20">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D20">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,31 +1557,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>0.1071115013169447</v>
+        <v>0.06406685236768803</v>
       </c>
       <c r="L20">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1017</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,13 +1589,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4631578947368421</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,31 +1607,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.06298701298701298</v>
+        <v>0.05256327060350422</v>
       </c>
       <c r="L21">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="M21">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1443</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1627,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.421875</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1645,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K22">
         <v>0.03070761014686248</v>
@@ -1677,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4181818181818182</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1695,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1703,13 +1715,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.390625</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1721,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1729,13 +1741,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3613861386138614</v>
+        <v>0.375</v>
       </c>
       <c r="C25">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1747,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1755,13 +1767,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3483146067415731</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1773,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1781,13 +1793,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3412322274881517</v>
+        <v>0.3459715639810427</v>
       </c>
       <c r="C27">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1799,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1807,13 +1819,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1825,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1833,13 +1845,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2436708860759494</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1851,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>239</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1859,13 +1871,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2319587628865979</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1877,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>149</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1885,13 +1897,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.225</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1903,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1911,13 +1923,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2181008902077151</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C32">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1929,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>527</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1937,13 +1949,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.213768115942029</v>
+        <v>0.2246835443037975</v>
       </c>
       <c r="C33">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D33">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1955,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1963,13 +1975,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.189873417721519</v>
+        <v>0.215</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1981,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>256</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1989,25 +2001,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1785714285714286</v>
+        <v>0.2020802377414562</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>115</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2015,13 +2027,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1719745222929936</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2033,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2041,13 +2053,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1542857142857143</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2059,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2067,13 +2079,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1542056074766355</v>
+        <v>0.1910828025477707</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2085,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>181</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2093,25 +2105,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1541850220264317</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>384</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2119,25 +2131,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1440922190201729</v>
+        <v>0.16</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>297</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2145,25 +2157,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1401098901098901</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C41">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>313</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2171,25 +2183,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1336032388663968</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E42">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>214</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2197,13 +2209,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1311475409836066</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2215,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2223,13 +2235,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1151832460732984</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2241,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>169</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2249,13 +2261,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1145833333333333</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2267,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>170</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2275,22 +2287,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.112781954887218</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46">
         <v>31</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>236</v>
@@ -2301,25 +2313,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08580858085808581</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C47">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>554</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2327,25 +2339,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08450704225352113</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>325</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2353,25 +2365,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.06904231625835189</v>
+        <v>0.08273381294964029</v>
       </c>
       <c r="C49">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>418</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2379,25 +2391,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04689480354879594</v>
+        <v>0.07962529274004684</v>
       </c>
       <c r="C50">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="F50">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>752</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2405,25 +2417,129 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03828483920367534</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="C51">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>36</v>
+      </c>
+      <c r="E51">
+        <v>0.06</v>
+      </c>
+      <c r="F51">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.07605633802816901</v>
+      </c>
+      <c r="C52">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.05607476635514019</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
         <v>25</v>
       </c>
-      <c r="D51">
-        <v>27</v>
-      </c>
-      <c r="E51">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F51">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>628</v>
+      <c r="E53">
+        <v>0.04</v>
+      </c>
+      <c r="F53">
+        <v>0.96</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.03924050632911392</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <v>0.11</v>
+      </c>
+      <c r="F54">
+        <v>0.89</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.03363914373088685</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+      <c r="E55">
+        <v>0.04</v>
+      </c>
+      <c r="F55">
+        <v>0.96</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
